--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/1_fold/150.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/1_fold/150.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-21.41075180217815</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3.646201424574381</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>-7.627926850328968</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-11.33151654509499</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-6.761814978534771</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-8.661391376700159</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-21.65656384539371</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>3.556271490795183</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>-7.807627995082812</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-11.75759613600269</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-6.736702606535203</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-8.489183418838349</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-22.01128400174609</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>3.426497702035193</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>-8.066946526957544</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-12.27101640509632</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-6.718665320522945</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-8.357489917286141</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-22.45723849258794</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>3.2633459812923</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>-8.392962012057776</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-12.8178160561005</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-6.668648496741911</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-8.210491763705884</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-22.9457906263949</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>3.084609982574702</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>-8.750118547468276</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-13.44450251707398</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-6.584961023139285</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-8.154232352811508</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-23.48089313368684</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>2.888843605889694</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-9.141305780864695</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-14.10694580881203</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-6.459735480306979</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-8.080873974206799</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-24.06549680230321</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>2.674967310334701</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-9.568680888704858</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-14.73812451600113</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-6.34340039062522</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-8.01850329624693</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-24.67102701342426</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>2.453435073447237</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>-10.01135436677391</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-15.32420415054783</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-6.245533338005173</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-7.917041696559346</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-25.29826175254509</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>2.223962270506959</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-10.46989496216106</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-15.89399033561494</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-6.122818990954455</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-7.737014230133779</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-25.97640821245103</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1.975863497826159</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-10.96565462292349</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-16.60223914194058</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-6.031754077262497</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-7.572989940845049</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-26.70239484942844</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1.710262474646386</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-11.49638789389847</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-17.29303973791466</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-5.86403121574807</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-7.345767337211631</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-27.46120967506976</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1.432651312361888</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-12.05112024565862</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-17.91622116000621</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-5.706783888409445</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-7.017155965892495</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-28.29375128271857</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1.128067327521768</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-12.65975063655653</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-18.64665043202141</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-5.535952164032311</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-6.725861063892023</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-29.19748295597723</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.7974385736691855</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-13.32042459748398</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-19.46089722944459</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-5.348505874657228</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-6.403341096365145</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-30.12926376668685</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.4565480887779978</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-14.00160390893599</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-20.26496854577253</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-5.14304093753645</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-6.132607992709088</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-31.10685934499136</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.09889634613059452</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-14.71627615293815</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-21.03339171471209</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-4.926681312334052</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-5.861798746505626</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-32.1150923241839</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>-0.2699640394985967</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-15.45334590008881</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-21.84888837096138</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-4.668263817356719</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-5.623896322962519</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-33.08662741149399</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>-0.6253985614326933</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-16.16358761597192</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-22.58433972065109</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-4.424460380099574</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-5.534829405773968</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-34.01236428827884</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>-0.9640778829874164</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-16.84034850336753</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-23.2713771547248</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-4.220489817773446</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-5.46859201062423</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-34.87589215179572</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>-1.279998138832929</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-17.47163142820271</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-23.9172598170168</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-3.985451336005323</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-5.466665273120374</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-35.62231378593658</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>-1.553075272286415</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-18.01730372468382</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-24.48258092671234</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-3.796129622830301</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-5.545313903496839</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-36.22213112257338</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>-1.772517463392004</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-18.45580080003791</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-24.89097229814608</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-3.63770849888191</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-5.720405346523354</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-36.68480982154014</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>-1.941787708310963</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-18.79404253453518</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-25.20173429844845</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-3.483195612339927</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-5.828312578375898</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-36.98710592740508</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>-2.052382243983508</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-19.01503641086419</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-25.43699758009494</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-3.384614921202369</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-5.998765947101893</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-37.09563556070423</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>-2.092087632735004</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-19.09437710991395</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-25.60316087685839</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-3.318055600387428</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-6.16589221756092</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-37.05189955448551</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>-2.076086886426707</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-19.06240385798677</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-25.64954603611896</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-3.272012455037623</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-6.295804645613</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-36.86097713992677</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>-2.006238233473702</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-18.92282983221258</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-25.53583152531235</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-3.287695935074826</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-6.394733677963041</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-36.49829079466864</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>-1.873550027537911</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-18.65768760981821</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-25.42854744759663</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-3.280701200725587</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-6.472829447234448</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-36.01332471911055</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>-1.696125982362663</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-18.30315266594588</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-25.1721226069123</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-3.275175990148915</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-6.528122178831356</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-35.43146888700625</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>-1.483254978299223</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-17.87778636678879</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-24.96523474339787</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-3.276919703531808</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-6.5293735650452</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-34.73719214083759</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>-1.229254966783784</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-17.37023464381208</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-24.6910763984995</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-3.245958643484773</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-6.539129742749432</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-33.96596887059416</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>-0.9471041953459907</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-16.80643108597737</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-24.40398473183522</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-3.279061861635447</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-6.490295885499643</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-33.15353786890839</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>-0.6498776427897329</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-16.21250257406789</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-24.0617860649716</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-3.250627322166951</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-6.419188677861637</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-32.29357143256843</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>-0.3352603292492055</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-15.58382323420064</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-23.71349207209366</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-3.261926253541136</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-6.334104346956828</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-31.39004130100746</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>-0.004705309096934253</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-14.92329661053673</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-23.38616038539722</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-3.226660996469156</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-6.129320620988591</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-30.48448262160857</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.3265918519624537</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-14.26128701490817</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-22.96626216151</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-3.229416146450867</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-6.049248456030239</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-29.57337149686645</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.6599203660649942</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-13.59521829845172</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-22.52236755385612</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-3.232677428915689</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-5.880241795704905</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-28.6317500733618</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1.00441102304469</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-12.90684499698517</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-22.14652232511552</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-3.206790119210801</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-5.729552383848359</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-27.69996187271239</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>1.345304211533259</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-12.22566028311014</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-21.71582369072</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-3.207017091879169</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-5.558602433291474</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-26.77458764522032</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>1.683850858437634</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-11.54916451084968</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-21.34450693598706</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-3.263080997700639</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-5.418467040614124</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-25.82408135735815</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>2.031592028503903</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-10.85429592023804</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-20.9154974223964</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-3.295466021313086</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-5.293705821421151</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-24.87470180040609</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>2.378920985910417</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-10.16025102740674</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-20.45654563866702</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-3.347635771973996</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-5.203370965291057</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-23.93176479364428</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>2.723892946872007</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-9.470915967459046</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-20.06733688312978</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-3.41975923663354</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-5.079589667577708</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-22.97061339374677</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>3.075528613757421</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-8.768265256843199</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-19.5427901533993</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-3.446685319061539</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-5.005598974774997</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-22.00092954120775</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>3.430285864479765</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>-8.059376888026479</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-19.10986803826601</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-3.541152337676794</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-4.933346318380403</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-21.03761023148208</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>3.782714657628377</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-7.355141324720969</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-18.75007624988259</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-3.618298193899512</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-4.886578241547119</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-20.06735041213103</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>4.137682624866429</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>-6.645831894779216</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-18.23908777133108</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-3.676202732090003</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-4.838240966128221</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-19.0820859995564</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>4.498139997982761</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>-5.925553341666894</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-17.8732957548875</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-3.74694199481947</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-4.787970332114388</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-18.10664182515256</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>4.855004653033524</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>-5.212453883679288</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-17.46177067944046</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-3.821299566364365</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-4.785434454231306</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-17.13573411260634</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>5.21020965093686</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>-4.502670810756793</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-17.04579411404387</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-3.847104039328972</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-4.796802867613163</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-16.15292100784011</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>5.569770217102652</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>-3.784184288716468</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-16.62795634583014</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-3.916838492398842</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-4.790555868180559</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-15.18548146374357</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>5.923706391253761</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>-3.076936623874288</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-16.31614373955798</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-3.971048511972848</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-4.784232726200551</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-14.23595043907487</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>6.271090762876555</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>-2.382781000414348</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-15.95536021536689</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-4.000527622736274</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-4.794521901736606</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-13.29289078543183</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>6.616107593998953</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>-1.693356279339111</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-15.66672433906599</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-4.034740853206699</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-4.858239971730958</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-12.37735993534319</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>6.951053057387361</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>-1.024056518162973</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-15.3390032036049</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-4.043398120933356</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-4.907762422452915</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-11.50006312854079</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>7.272010658603254</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>-0.3827077933039691</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-15.09344670053897</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-4.102608166150659</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-4.9733377084948</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-10.6558860692285</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>7.580851454394943</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>0.2344287063927753</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-14.83962573240905</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-4.103723977042231</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-5.004519736929194</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-9.855439988565104</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>7.873693343206529</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>0.8195956295723875</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-14.60545834147242</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-4.118484655792715</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-5.149528252640351</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-9.113009024952241</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>8.14531049637743</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>1.362350542296243</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-14.45147211131559</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-4.112563485597504</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-5.212388891340033</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-8.424731796553608</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>8.397115594133936</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>1.865516311691754</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-14.16579332854171</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-4.159482215292068</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-5.324156219291367</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-7.785887615673473</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>8.630835692344901</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>2.332544001310778</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-13.9728486364969</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-4.191947590542586</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-5.3964121862315</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-7.210844533919305</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>8.841214262840694</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>2.752929832380032</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-13.80911713027557</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-4.187533220653068</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-5.556851154701199</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-6.696768497015235</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>9.029288139740679</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>3.128745643166698</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-13.71433164082102</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-4.205232946948684</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-5.624250551335222</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-6.234519227087011</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>9.198401278748578</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>3.466673443127616</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-13.51464857945279</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-4.23559344062869</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-5.692911265819706</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-5.838142075926135</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>9.343415210894396</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>3.756445363518901</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-13.48113787179603</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-4.293843408026148</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-5.754424512484904</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-5.508993111434216</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>9.463833820955308</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>3.997070049518815</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-13.38368511115097</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-4.328170124830756</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-5.758241571491683</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-5.237718939219309</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>9.56307903296431</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>4.195385309631691</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-13.33102801538978</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-4.367778512195615</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-5.813709762002173</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-5.032656340507246</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>9.638100849151709</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>4.345296531444537</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-13.30114914388717</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-4.434820771206387</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-5.885687643117007</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-4.89684009233558</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>9.687789001304232</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>4.44458513811064</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-13.28211143915892</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-4.492755958990782</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-5.84406084350621</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-4.82270359343535</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>9.714911718114625</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>4.498782701200463</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-13.29782524396554</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-4.543297967705191</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-5.844901722073185</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-4.814057001036276</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>9.71807505979509</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>4.505103801387451</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-13.4189483382487</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-4.619043883017178</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-5.789350767924215</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-4.87976976166539</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>9.694034153847117</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>4.457064420747211</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-13.49160770370177</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-4.685021689915353</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-5.777936006904808</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-5.018209629390428</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>9.643386154774117</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>4.355857814332307</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-13.66341800755278</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-4.752379556906591</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-5.680344434952633</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-5.227812619962392</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>9.566703243654382</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>4.202627334422169</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-13.80546718022538</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-4.860907283816966</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-5.617844645716731</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-5.521124156206291</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>9.459395698075916</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>3.988201636872774</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-14.0351332679984</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-4.924659267503819</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-5.582418497900991</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-5.89877739827469</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>9.321231877432966</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>3.712117849309198</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-14.38242646812064</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-5.029172725980227</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-5.495470329857572</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-6.351739813437074</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>9.155516319044729</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>3.380979213991123</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-14.72014194571667</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-5.084515123793859</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-5.401616363819234</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-6.892551058359802</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>8.957661410038915</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>2.985618602130687</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-15.20642307008233</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-5.168472645169797</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-5.348925721016194</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-7.524754584859947</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>8.726370784366527</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>2.523445569665106</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-15.62993501622768</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-5.266103198896344</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-5.2785865599433</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-8.231759529230873</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>8.4677141823664</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>2.006588884418516</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-16.22201487883455</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-5.333890988569636</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-5.172241905585291</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-9.025356999937735</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>8.177377846300782</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>1.426428644528553</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-16.93735527545619</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-5.423931211784331</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-5.052863633439172</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-9.909897176831413</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>7.853770269989584</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>0.7797846465810062</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-17.58543877611593</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-5.4875398879105</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-5.018791498748993</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-10.86867628899809</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>7.503002500688637</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>0.0788681993289074</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-18.50233702234497</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-5.567581716573405</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-4.99163840423589</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-11.90345219841179</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>7.124431427471197</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-0.6776057840156788</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-19.39298370475155</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-5.619374560066041</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-4.91628045612546</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-13.02417627141571</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>6.714416359244392</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-1.496912259961566</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-20.38309831873662</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-5.708190456259398</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-4.904508156187812</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-14.2216170388144</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>6.276334613907582</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-2.372302553543611</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-21.59846828681122</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-5.741878501796449</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-4.88757802629998</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-15.4862139139422</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>5.813683916448066</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-3.296787388134581</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-22.91530777197569</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-5.80223003729481</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-4.890613796559491</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-16.83819721120332</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>5.31906303944467</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-4.285156155700826</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-24.23443413651403</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-5.866440936522813</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-4.94448961466559</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-18.27743830436111</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>4.792519040595585</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-5.337314823900952</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-25.77618934021747</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-5.93391063311343</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-5.060163386353265</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-19.78109626674889</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>4.242408235546383</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-6.436565510013056</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-27.43098431210037</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-5.955353751702298</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-5.183186569138122</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-21.37589588486281</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>3.658953404888192</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-7.602445396446253</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-29.231442178914</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-6.011640488355122</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-5.360095501665695</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-23.07143612499434</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>3.038642782510409</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-8.841971817292354</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-31.05598926321143</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-6.025498246636555</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-5.562455908299186</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-24.83029140837708</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>2.395168455163887</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-10.12778476504553</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-33.03454974850973</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-6.083011795412925</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-5.840842993242039</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-26.67299699886035</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>1.721017630171948</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-11.47489656527485</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-35.1517177662348</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-6.108227299154142</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-6.081417027035337</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-28.62061551632755</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>1.008484582515791</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-12.8987050677156</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-37.34876353698117</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-6.152361886007896</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-6.540311607506951</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-30.61670819481638</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>0.2782173423699075</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-14.3579506549819</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-39.57492513135985</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-6.17747881402818</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-6.89080899538621</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-32.69890310168537</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-0.4835502571366412</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-15.88014136407122</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-41.88777983214138</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-6.187662762878197</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-7.293368022416047</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-34.81587688103115</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-1.258041650228887</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-17.4277572033355</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-44.09887972197055</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-6.182100275768398</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-7.747621218041604</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-37.04491102315501</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-2.073530143675032</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-19.05729488503406</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-46.50265938811509</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-6.187807727173687</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-8.162773560302828</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-39.19204127947593</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-2.85905423452249</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-20.62695664753011</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-48.71188222546809</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-6.146653606235205</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-8.540847792524216</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-41.55766874348809</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-3.724515171268833</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-22.3563510164274</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-51.13888730267946</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-6.115127599619461</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-9.036158373927814</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-36.74914299929411</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>-1.965323896121526</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-18.8410733697083</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-36.46350072876997</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>-1.860822138857138</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-18.63225429668078</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-36.09396400954859</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>-1.725627734816406</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-18.36210410141785</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-35.6712234641364</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>-1.570968798023133</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-18.05305919478641</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-35.19848283776735</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>-1.398017413428743</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-17.70746167800537</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-34.69845828425976</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>-1.215084248736408</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-17.34191821847866</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-34.18895843191213</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>-1.028684561468217</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-16.96944783207658</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-33.68928484882561</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>-0.8458797987301243</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-16.60416094983394</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-33.2138449427331</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>-0.6719408870658374</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-16.25659012185964</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-32.77690769683813</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>-0.5120881106315149</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-15.93716670286928</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-32.38221328937814</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>-0.3676898075151314</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-15.64862495397578</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-32.02563579115757</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>-0.237236513271902</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-15.38794861043509</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-31.70356508029464</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>-0.1194074707187504</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-15.15249848896565</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-31.40490051830447</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>-0.01014152943036418</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-14.934159456488</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-31.1186493244595</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>0.09458300143455077</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>-14.72489522944609</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-30.83932853910896</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>0.1967720536922549</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>-14.52069748459834</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-30.56518828866472</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>0.2970658157315912</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>-14.32028697507446</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-30.30206533810034</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>0.3933289166378873</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-14.1279306738579</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-30.05952328604856</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>0.4820625295006264</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>-13.9506200594775</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-29.84913008874992</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>0.5590345364582685</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>-13.79681189813436</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-29.68056489055274</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>0.6207038383893247</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>-13.67358213817044</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-29.55739422332118</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>0.6657656254473361</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>-13.5835380963405</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-29.4741515607398</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>0.6962198173397294</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>-13.52268346300947</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-29.41823407054961</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>0.7166771396259826</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>-13.48180492480812</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-29.37329521046483</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>0.7331179480529018</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>-13.44895232533607</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-29.31588207895451</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>0.7541224482687523</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>-13.4069803970231</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-29.2236707894076</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>0.7878577976607951</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>-13.33956923980702</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-29.08167433183067</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>0.8398069693113311</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>-13.23576258475559</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-28.86725705295571</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>0.9182511799289194</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>-13.07901261447425</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-28.56401229422863</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>1.029192778698762</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>-12.8573252245034</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-28.17080227811249</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>1.173048019670961</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>-12.56986864141489</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-27.6817644746734</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>1.351961699828759</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>-12.21235705672476</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-27.09723867304371</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>1.56580950787409</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>-11.78503887362459</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-26.43225921823512</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>1.809091153285677</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>-11.29890496535996</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-25.70071314236304</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>2.076726088087954</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-10.76410746091418</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-24.91108866551559</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>2.36560891085126</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-10.1868516822349</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-24.08122632141128</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>2.669212691507801</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-9.580179969682222</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-23.23377412554485</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>2.979251690648596</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>-8.960649178069163</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-22.37468518127621</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>3.293547975150704</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>-8.332611329675098</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-21.51711399320865</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>3.607288991030207</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>-7.705683038498913</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-20.68615500070613</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>3.911293978708747</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>-7.098209620016888</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-19.88372358393865</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>4.204862199485335</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>-6.511591314854692</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-19.11798416167048</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>4.485006714114795</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>-5.951796729672107</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-18.41241586077676</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>4.743137722449618</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>-5.435990304103925</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-17.77383153702004</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>4.976762752357196</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>-4.969152583299847</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-17.20977081053178</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>5.183123446149787</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>-4.556795414242267</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-16.74009504483681</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>5.354953556481703</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>-4.2134384669811</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-16.38044839757227</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>5.486529693880509</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>-3.950518418903365</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-16.13257452651697</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>5.577213944001036</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>-3.769309972805608</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-16.01000307222163</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>5.622056509986844</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>-3.679703986203477</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-16.03145839964268</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>5.614207113557985</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>-3.695388925184483</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-16.19186551812169</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>5.555522431742459</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>-3.812654712654731</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-16.49565144047822</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>5.44438284914431</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>-4.034737720848512</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-16.95350548132452</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>5.276877697503956</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>-4.369452384108948</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-17.55359493076833</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>5.057335954373191</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>-4.808148387807977</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-18.28690066003956</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>4.789057253254223</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>-5.344232288664847</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-19.14910737947329</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>4.473620335809697</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>-5.974549389771361</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-20.12353443587014</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>4.117127791717439</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>-6.686905282603195</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-21.18778191564164</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>3.727774592710007</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>-7.464924487498803</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-22.3280824455644</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>3.310597509753113</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>-8.298542352229886</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-23.53167204649207</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>2.87026622373129</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>-9.178427756830912</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-24.77152421915181</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>2.416668335179056</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>-10.08482295145983</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-26.03138204269531</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>1.955751411986975</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>-11.00584329755949</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-27.29745592870115</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>1.492560352514615</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>-11.9314079024584</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-28.54235036112425</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>1.037117761478788</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>-12.841489246227</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-29.74984232280779</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>0.5953588031600047</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>-13.72422747563636</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-30.90597581505875</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>0.1723892568433924</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>-14.56942004361633</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-31.99453019989193</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>-0.2258565836065831</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>-15.3652088362338</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-33.00232676508905</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>-0.5945573078896719</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>-16.10195954248827</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-33.91941311279096</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>-0.9300718475345757</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>-16.77239645178014</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-34.73875906064237</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>-1.229828221830352</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>-17.37138014213255</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-35.45317601883343</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>-1.491196496958027</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>-17.89365538763757</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-36.05976531041718</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>-1.713116196699758</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>-18.33710310755841</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-36.55860953585721</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>-1.895617540299993</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>-18.70178368704821</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-36.95054065663236</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>-2.039004899504393</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>-18.98830533239408</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-37.24076639226388</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>-2.145183509978229</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>-19.20047515226038</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-37.43441017634974</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>-2.216027771519655</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>-19.34203863800131</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-37.54380135835861</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>-2.256048356456819</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>-19.42200917311351</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-37.58342322984185</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>-2.270543953304246</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>-19.45097478264869</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-37.563874839431</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>-2.263392206660184</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>-19.43668391191278</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-37.50569221894887</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>-2.242106190163141</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>-19.39414944790261</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-37.42636176495483</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>-2.213083273380738</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>-19.33615483864716</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-37.33454795219868</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>-2.179493340222189</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>-19.26903425724413</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-37.24242434465734</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>-2.145790069148408</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>-19.2016872000476</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-37.16356398826406</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>-2.116939136804005</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>-19.14403625612236</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-37.10269337308625</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>-2.094669721846011</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>-19.09953673084999</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-37.06012986955624</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>-2.07909793372777</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>-19.06842063820855</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-37.04293199480226</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>-2.072806119390535</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>-19.05584811433951</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-37.04545287687714</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>-2.073728379972619</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>-19.05769100774994</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-37.05392876039464</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>-2.076829268088101</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>-19.06388731103505</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-37.06358306011256</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>-2.080361277842216</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>-19.07094509668465</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-37.06122712201113</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>-2.079499361742919</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>-19.06922278573415</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-37.02662263469821</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>-2.06683936668407</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>-19.04392514001099</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-36.95126279951266</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>-2.039269094295485</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>-18.98883325568282</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-36.81916424228704</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>-1.990941053292179</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>-18.89226247077234</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-36.62254498829198</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>-1.919008220953344</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>-18.74852376472133</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-36.33967069104092</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>-1.815519122181573</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-18.54172822137653</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-35.9887277910907</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>-1.687127236495449</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>-18.28517105664483</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-35.53448889070881</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>-1.520944678078419</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>-17.9530992455059</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-35.02618593830429</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>-1.334982874695886</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>-17.58150385402725</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-34.39196404622319</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>-1.102953833278429</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>-17.11785529334635</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-6.600764959055947</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>9.064410877008994</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>3.198929127450154</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-7.79878133021329</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>8.626118547978963</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>2.323118038153625</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-9.235228263298122</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>8.100596788020388</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>1.273002043522983</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-10.73955922015453</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>7.550239769046082</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>0.173259364118588</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-12.26943207170653</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>6.990538289692533</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-0.9451557434383718</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-13.73485649589901</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>6.454415162029146</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-2.016455762480599</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-15.07450754141073</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>5.964306019148551</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-2.995809024834941</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-16.21635574005883</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>5.546562724120999</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-3.830558314365249</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-17.11132590117838</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>5.219139355147732</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>-4.484827162912608</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-17.71187759124603</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>4.999428502041116</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>-4.923861088090867</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-17.99412880792412</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>4.896167356277396</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>-5.130201127747675</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-17.94971536218185</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>4.912415942726864</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>-5.097732632966278</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-17.57931935513287</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>5.047924715813237</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>-4.826954254461094</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-16.90405546970591</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>5.294968903337765</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>-4.333301902709782</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-15.96238158539868</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>5.639478753016244</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>-3.64489024972003</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-14.79508407469944</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>6.06653263721407</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>-2.79153621467374</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-13.4531021431676</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>6.557494530931009</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>-1.810478955718477</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-11.99710300622625</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>7.090169432676507</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>-0.7460693025285767</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-10.4803044627474</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>7.645087697815466</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>0.362787818784611</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-8.958577083956612</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>8.201809169288063</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>1.475248170176651</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-7.487478864372621</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>8.740008045711193</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>2.550696023123251</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-6.114316168636778</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>9.242377370989947</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>3.554548011533031</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-4.883375462871456</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>9.692715013961017</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>4.454428469205153</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-3.831335741009584</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>10.07760202471322</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>5.223523180237322</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-2.986138832639075</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>10.38681593061404</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>5.841405241627629</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-2.371255960572085</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>10.61176982320447</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>6.290915992014564</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-1.998197728501115</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>10.74825256695885</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>6.563640592835735</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-1.870447366313954</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>10.79498982792244</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>6.657032625331147</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-1.981399175306351</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>10.75439829015707</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>6.575921192271866</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-2.316478441638421</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>10.6318100888719</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>6.330961153066835</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-2.855320128148852</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>10.43467573958837</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>5.937040388891318</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-3.574116943836839</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>10.17170510076236</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>5.411563244098702</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-4.445140904711225</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>9.853042409964747</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>4.774800289649406</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-5.439136879762592</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>9.489390609004072</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>4.048138518888204</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-6.526297180313648</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>9.091654792007521</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>3.253368873006202</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-7.67112137239674</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>8.672822734651502</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>2.416443980441751</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-8.841412893253084</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>8.24467349673691</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>1.56090117121826</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-10.00894170583528</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>7.817534991123694</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>0.707378042694667</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-11.14192201142754</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>7.403036000259765</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>-0.1208883645779495</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-12.21818915351419</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>7.009285427462543</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>-0.9076945558609364</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-13.21851475682977</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>6.643317942358809</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>-1.638983607816605</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-14.12979717817871</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>6.309926759672963</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>-2.305177550832077</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-14.94501163005715</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>6.011681886418375</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>-2.901140906842144</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-15.65934613510229</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>5.750343776639217</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>-3.423355874890784</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-16.27678178054434</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>5.524455956086709</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>-3.87473283285565</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-16.80450331272607</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>5.331389897068016</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>-4.26052419687417</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-17.25028250168759</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>5.168302310231191</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>-4.586411527356097</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-17.62556359023174</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>5.031006338073444</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>-4.860761149667791</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-17.94576103617773</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>4.913862626424865</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>-5.094841818910241</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-18.22382948705184</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>4.812131738686121</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>-5.298124043362469</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-18.4678758429404</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>4.722847778726242</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>-5.47653438059612</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-18.69402524297149</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>4.640111390781382</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>-5.641861130007432</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-18.91013769665724</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>4.561047003233138</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>-5.799850359562131</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-19.11051529564892</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>4.487739186527207</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>-5.946336607553876</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-19.29996882474903</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>4.418427922915652</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>-6.084836803116269</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-19.47504602700992</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>4.354376214953716</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>-6.212827170288773</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-19.62041697882166</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>4.301192490109181</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>-6.319100752790254</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-19.72918627321364</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>4.261399421739039</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>-6.39861665632622</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-19.79602370127227</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>4.236947058052311</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>-6.447478226237202</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-19.80777626823705</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>4.232647400659401</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>-6.45606995229643</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-19.7530994261077</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>4.252650833882715</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>-6.416098391124569</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-19.63157528589754</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>4.297110241724217</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-6.327258044551959</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-19.43498517036149</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>4.369032413805505</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-6.183540640201105</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-19.15281394325844</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>4.472264295514083</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-5.977259077004673</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-18.78902993638094</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>4.605354079157178</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-5.71131440796459</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-18.34226817938359</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>4.768801136902099</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>-5.38470877011852</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-17.810159509934</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>4.96347222291141</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>-4.995710184928427</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-17.19915120887149</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>5.187008610039959</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>-4.549031943623745</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-16.51468386234308</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>5.437419868748495</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>-4.048651392252949</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-15.76154020973645</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>5.712956241658204</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>-3.498064957320538</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-14.94851738084005</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>6.010399313231041</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>-2.903703789525462</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-14.08945379653716</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>6.324686319831176</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>-2.275684480560209</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-13.19727859682899</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>6.651087156745591</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>-1.623458891401595</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-12.28534738648553</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>6.984715697823444</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>-0.9567906505303599</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-11.37338513967564</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>7.318355593541755</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>-0.2900997204187044</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-10.47555983639833</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>7.646823511601468</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>0.3662563827133917</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-9.604917532757234</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>7.965346573724807</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>1.002740326253261</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-8.773515429719787</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>8.269513672667472</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>1.610537681143513</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-7.98774166455474</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>8.556987718862832</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>2.184978393122274</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-7.256005569765836</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>8.82469217177489</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>2.719914811090881</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-6.578837879952072</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>9.072432863019067</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>3.21495894097975</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-5.956517930967299</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>9.300107598030316</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>3.669906574028191</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-5.392086166003753</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>9.506604035641944</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>4.082534991141333</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-4.885202886429377</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>9.692046454042632</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>4.453092529350406</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-4.437057188953677</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>9.855999824146966</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>4.780709898293854</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-4.053671913519524</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>9.996260699817242</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>5.060984094692241</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-3.742820745624979</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>10.10998509093436</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>5.288232157838336</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-3.509467813153851</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>10.19535687943501</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>5.458825056982647</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-3.362873830138081</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>10.24898804824424</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>5.565992737692492</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-3.31580260807051</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>10.26620897781331</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>5.600404202565625</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-3.372602186090266</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>10.245428945138</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>5.558880813157341</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-3.53957895975702</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>10.1843407657222</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>5.436812272565509</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-3.824756586515405</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>10.0800089976192</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>5.228332877836555</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-4.223610636940178</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>9.934088895930726</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>4.936750217713645</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-4.734585581468121</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>9.747149548602117</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>4.563201463669552</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-5.342635671721311</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>9.524695418057528</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>4.118685825392387</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-6.047478740752517</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>9.266829734612884</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>3.603409581316541</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-6.801884807100627</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>8.990831509701589</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>3.051900257531623</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-7.61818813149604</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>8.692188274218433</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>2.455140880158115</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-8.415397388376457</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>8.400530572091315</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>1.872340240304409</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-9.253684816963988</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>8.093844488062862</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>1.259509361152418</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>